--- a/test 10.08.xlsx
+++ b/test 10.08.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10.08" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="27.08" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>№ п.п</t>
   </si>
@@ -306,6 +306,95 @@
   </si>
   <si>
     <t>Правильных ответов: 7 / 20 (35 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Укажите модули входящие в стандартный набор Python:
+</t>
+  </si>
+  <si>
+    <t>math, numply</t>
+  </si>
+  <si>
+    <t>math cmath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Какие фрагменты кода создадут словари (dictionary):
+</t>
+  </si>
+  <si>
+    <t>tel = {'qwe' : 1, 'asd' : 2, 'zxc' : 3}           dict([('asd', 1), ('zxc', 2), ('qwe', 3)])</t>
+  </si>
+  <si>
+    <t>dict([('asd' : 1), ('zxc' : 2), ('qwe' : 3)])                                       dict([('asd', 1), ('zxc', 2), ('qwe', 3)])</t>
+  </si>
+  <si>
+    <t>list = []  for i in range(100): 
+    list.append(lambda x: x+i)  list[42](3)</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
+  <si>
+    <t>x=2 
+y=3 
+def mult(x, y): 
+    return x * y 
+print (mult</t>
+  </si>
+  <si>
+    <t>на консоль выведется "6" без кавычек</t>
+  </si>
+  <si>
+    <t>на консоль выведется что-то вроде: &lt;function mult at 0x0234D420&gt;</t>
+  </si>
+  <si>
+    <t>def func(n): 
+    n = n + 1 
+    return n 
+print(func(0))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python 3, в отличии от Python 2, полностью поддерживает Unicode
+</t>
+  </si>
+  <si>
+    <t>обе версии поддерживают</t>
+  </si>
+  <si>
+    <t>только 3-я</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как можно вызвать метод func у следующего класса (выберите все подходящие варианты):                  class myClass: 
+    def func(self): 
+        print('hello') </t>
+  </si>
+  <si>
+    <t>myClass.func()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obj = myClass()
+obj.func()                                             obj = myClass()
+myClass.func(obj) </t>
+  </si>
+  <si>
+    <t>range()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что напечатает следующий код:       for i in range(3): 
+    if i &lt; 1: 
+        print(i) 
+    else: 
+        print(i) 
+        break </t>
+  </si>
+  <si>
+    <t>0 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что выведет следующий код:list(range(3))[2] </t>
+  </si>
+  <si>
+    <t>Пояснение: функция list создает список значений</t>
   </si>
 </sst>
 </file>
@@ -700,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,13 +1156,270 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6">
+        <v>102</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="78.599999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
